--- a/Code/Results/Cases/Case_1_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.211033189740192</v>
+        <v>1.246748183887064</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05487101329614497</v>
+        <v>0.100861413049131</v>
       </c>
       <c r="E2">
-        <v>0.06642929554316801</v>
+        <v>0.1123289386138282</v>
       </c>
       <c r="F2">
-        <v>2.078281095377449</v>
+        <v>2.146450807788369</v>
       </c>
       <c r="G2">
-        <v>0.0008109676643042515</v>
+        <v>0.002528076292829612</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.523294538969566</v>
+        <v>1.051048226445658</v>
       </c>
       <c r="L2">
-        <v>0.4165631320193341</v>
+        <v>0.2473636141730253</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.859607172927809</v>
+        <v>2.950801149231197</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.080260920487547</v>
+        <v>1.219779472695791</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05668658068504051</v>
+        <v>0.1013388829962043</v>
       </c>
       <c r="E3">
-        <v>0.06450665334152639</v>
+        <v>0.1118091654777409</v>
       </c>
       <c r="F3">
-        <v>1.899645556132953</v>
+        <v>2.109131284187768</v>
       </c>
       <c r="G3">
-        <v>0.0008188904245516726</v>
+        <v>0.002533022867710667</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.176942184472665</v>
+        <v>0.9632996346812206</v>
       </c>
       <c r="L3">
-        <v>0.362466521622693</v>
+        <v>0.2344631084123847</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.86570524993104</v>
+        <v>2.955732365344502</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.001588035162428</v>
+        <v>1.203904745414206</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05784739579030429</v>
+        <v>0.1016488144719325</v>
       </c>
       <c r="E4">
-        <v>0.06335928518499934</v>
+        <v>0.1114849743318507</v>
       </c>
       <c r="F4">
-        <v>1.793683063537785</v>
+        <v>2.087328611008772</v>
       </c>
       <c r="G4">
-        <v>0.0008238905202884089</v>
+        <v>0.002536220283943275</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.967575924792982</v>
+        <v>0.91002312539797</v>
       </c>
       <c r="L4">
-        <v>0.3298382722066009</v>
+        <v>0.226699275821062</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.871498711341928</v>
+        <v>2.959471811802956</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9698982112698218</v>
+        <v>1.197607745780971</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0583315420440762</v>
+        <v>0.1017793225283228</v>
       </c>
       <c r="E5">
-        <v>0.06289855186440096</v>
+        <v>0.1113515652256996</v>
       </c>
       <c r="F5">
-        <v>1.75135242107703</v>
+        <v>2.078722417702167</v>
       </c>
       <c r="G5">
-        <v>0.0008259635421717627</v>
+        <v>0.002537563676452535</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.882971144217379</v>
+        <v>0.8884624480444643</v>
       </c>
       <c r="L5">
-        <v>0.3166720492385053</v>
+        <v>0.2235747983106933</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.874347388540357</v>
+        <v>2.961174249550922</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9646574346620298</v>
+        <v>1.196572528415487</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05841259195240411</v>
+        <v>0.1018012472793366</v>
       </c>
       <c r="E6">
-        <v>0.06282241886477191</v>
+        <v>0.1113293334705294</v>
       </c>
       <c r="F6">
-        <v>1.744372406606772</v>
+        <v>2.077310163066286</v>
       </c>
       <c r="G6">
-        <v>0.0008263099447608806</v>
+        <v>0.00253778919080865</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.868962498638837</v>
+        <v>0.8848913315631535</v>
       </c>
       <c r="L6">
-        <v>0.3144931728431573</v>
+        <v>0.2230583529439372</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.874849106924543</v>
+        <v>2.961467713272654</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.001159204915837</v>
+        <v>1.203819125071448</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05785388078291298</v>
+        <v>0.1016505575198856</v>
       </c>
       <c r="E7">
-        <v>0.06335304580006706</v>
+        <v>0.1114831804245306</v>
       </c>
       <c r="F7">
-        <v>1.793108844662939</v>
+        <v>2.087211418231135</v>
       </c>
       <c r="G7">
-        <v>0.0008239183325075859</v>
+        <v>0.002536238237453509</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.966432170909542</v>
+        <v>0.9097317452149696</v>
       </c>
       <c r="L7">
-        <v>0.32966020366257</v>
+        <v>0.2266569789233728</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.871535189329464</v>
+        <v>2.959494048910898</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.165582639409365</v>
+        <v>1.237307383169849</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05548716110052432</v>
+        <v>0.1010225614622939</v>
       </c>
       <c r="E8">
-        <v>0.06575853162763678</v>
+        <v>0.112150750866026</v>
       </c>
       <c r="F8">
-        <v>2.015861677105462</v>
+        <v>2.133351710239822</v>
       </c>
       <c r="G8">
-        <v>0.0008136721696801763</v>
+        <v>0.002529748704113816</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.403116028124145</v>
+        <v>1.020666850504341</v>
       </c>
       <c r="L8">
-        <v>0.3977776779732096</v>
+        <v>0.2428828032791586</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.861267241014119</v>
+        <v>2.952353501945495</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.50275706995032</v>
+        <v>1.308409982705911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05123574948214227</v>
+        <v>0.0999243646223924</v>
       </c>
       <c r="E9">
-        <v>0.07081619241438641</v>
+        <v>0.1134211668923655</v>
       </c>
       <c r="F9">
-        <v>2.486456129195076</v>
+        <v>2.232704125096276</v>
       </c>
       <c r="G9">
-        <v>0.000794586717399633</v>
+        <v>0.002518287669319223</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.291340865334746</v>
+        <v>1.24305448750232</v>
       </c>
       <c r="L9">
-        <v>0.5368916760958484</v>
+        <v>0.2759577867196015</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.858752424466374</v>
+        <v>2.944015416127485</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.762352128967876</v>
+        <v>1.363973635046278</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.048389038091603</v>
+        <v>0.09919917919837928</v>
       </c>
       <c r="E10">
-        <v>0.07486514508149966</v>
+        <v>0.1143329307094501</v>
       </c>
       <c r="F10">
-        <v>2.85939946971672</v>
+        <v>2.31118772450111</v>
       </c>
       <c r="G10">
-        <v>0.0007810741808887324</v>
+        <v>0.002510629698982776</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.972304126886456</v>
+        <v>1.409513179812336</v>
       </c>
       <c r="L10">
-        <v>0.6438309170673051</v>
+        <v>0.3010397651094934</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.869750468005222</v>
+        <v>2.941368945131671</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.883753038949408</v>
+        <v>1.389976272287186</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0471647285762451</v>
+        <v>0.0988870951990144</v>
       </c>
       <c r="E11">
-        <v>0.07681338381882874</v>
+        <v>0.1147434606068503</v>
       </c>
       <c r="F11">
-        <v>3.036651513356645</v>
+        <v>2.348102262297886</v>
       </c>
       <c r="G11">
-        <v>0.0007750112575199974</v>
+        <v>0.002507309597348315</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.290543553669295</v>
+        <v>1.485932920811877</v>
       </c>
       <c r="L11">
-        <v>0.6938524245176865</v>
+        <v>0.3126236262877029</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.878079328318137</v>
+        <v>2.940926409058378</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.930268451500012</v>
+        <v>1.399927386029134</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04671235316465072</v>
+        <v>0.09877148643744249</v>
       </c>
       <c r="E12">
-        <v>0.0775698303324992</v>
+        <v>0.1148983434340769</v>
       </c>
       <c r="F12">
-        <v>3.105025406527716</v>
+        <v>2.362256415614041</v>
       </c>
       <c r="G12">
-        <v>0.0007727249812687492</v>
+        <v>0.002506075737758935</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.412488147115425</v>
+        <v>1.514973105534182</v>
       </c>
       <c r="L12">
-        <v>0.7130245059523475</v>
+        <v>0.3170353864800575</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.881762817407207</v>
+        <v>2.940868780068683</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.920225192362494</v>
+        <v>1.397779588548019</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04680926111065631</v>
+        <v>0.09879627035562066</v>
       </c>
       <c r="E13">
-        <v>0.07740602459966439</v>
+        <v>0.1148650117262715</v>
       </c>
       <c r="F13">
-        <v>3.090241405708639</v>
+        <v>2.359200245278004</v>
       </c>
       <c r="G13">
-        <v>0.0007732169861621258</v>
+        <v>0.00250634043322648</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.386157658763295</v>
+        <v>1.508714235740342</v>
       </c>
       <c r="L13">
-        <v>0.7088846666472648</v>
+        <v>0.3160841109900616</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.880945076054275</v>
+        <v>2.940876293933343</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.88756858220151</v>
+        <v>1.390792862362559</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04712727921100424</v>
+        <v>0.09887753241663688</v>
       </c>
       <c r="E14">
-        <v>0.07687522106984623</v>
+        <v>0.1147562142604119</v>
       </c>
       <c r="F14">
-        <v>3.042250588491157</v>
+        <v>2.349263210754259</v>
       </c>
       <c r="G14">
-        <v>0.0007748229864482098</v>
+        <v>0.002507207618897629</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.300545923965501</v>
+        <v>1.488320027748841</v>
       </c>
       <c r="L14">
-        <v>0.6954249135978898</v>
+        <v>0.3129860782373584</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.878371442161225</v>
+        <v>2.940919461628795</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.867638385564533</v>
+        <v>1.38652689774338</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04732357385977082</v>
+        <v>0.09892764285918076</v>
       </c>
       <c r="E15">
-        <v>0.07655263305139393</v>
+        <v>0.1146894986634823</v>
       </c>
       <c r="F15">
-        <v>3.013023006677287</v>
+        <v>2.343199369077411</v>
       </c>
       <c r="G15">
-        <v>0.0007758078830416205</v>
+        <v>0.002507741837519127</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.248299948718966</v>
+        <v>1.475841273556853</v>
       </c>
       <c r="L15">
-        <v>0.6872114102735907</v>
+        <v>0.3110917316573847</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.876865607687691</v>
+        <v>2.940960235784345</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.754490500318298</v>
+        <v>1.362288920861516</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04847056027884378</v>
+        <v>0.09921993379196437</v>
       </c>
       <c r="E16">
-        <v>0.07474024119412714</v>
+        <v>0.1143060191998186</v>
       </c>
       <c r="F16">
-        <v>2.847981743167708</v>
+        <v>2.308799757451595</v>
       </c>
       <c r="G16">
-        <v>0.000781471893951447</v>
+        <v>0.00251084995534809</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.951694711112054</v>
+        <v>1.404533118466418</v>
       </c>
       <c r="L16">
-        <v>0.6405922307758516</v>
+        <v>0.300286248934114</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.869277323963871</v>
+        <v>2.941413226178199</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.685971395920063</v>
+        <v>1.347605778360872</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04919301715808899</v>
+        <v>0.09940381258101993</v>
       </c>
       <c r="E17">
-        <v>0.07365788578710841</v>
+        <v>0.1140697054536135</v>
       </c>
       <c r="F17">
-        <v>2.748788024144773</v>
+        <v>2.28800792737627</v>
       </c>
       <c r="G17">
-        <v>0.0007849664356756463</v>
+        <v>0.002512798483268153</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.772051271512566</v>
+        <v>1.360967400907214</v>
       </c>
       <c r="L17">
-        <v>0.6123667317011723</v>
+        <v>0.293702120849332</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.865508545443419</v>
+        <v>2.941886453550907</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.646868086116825</v>
+        <v>1.339228798924978</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0496151332943171</v>
+        <v>0.09951125020266716</v>
       </c>
       <c r="E18">
-        <v>0.07304512053781043</v>
+        <v>0.1139333832987228</v>
       </c>
       <c r="F18">
-        <v>2.692438956815749</v>
+        <v>2.276163022315046</v>
       </c>
       <c r="G18">
-        <v>0.0007869844729239344</v>
+        <v>0.002513934625992146</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.669507482846143</v>
+        <v>1.335975052941308</v>
       </c>
       <c r="L18">
-        <v>0.5962593744739024</v>
+        <v>0.2899314653012368</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.863650468324025</v>
+        <v>2.942230275605297</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.633679179155735</v>
+        <v>1.336404240851436</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04975915414784282</v>
+        <v>0.09954791418450171</v>
       </c>
       <c r="E19">
-        <v>0.07283923316276741</v>
+        <v>0.1138871571309412</v>
       </c>
       <c r="F19">
-        <v>2.67347658038284</v>
+        <v>2.272172087052894</v>
       </c>
       <c r="G19">
-        <v>0.0007876692017538897</v>
+        <v>0.002514321953716188</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.634916115426336</v>
+        <v>1.32752427836698</v>
       </c>
       <c r="L19">
-        <v>0.5908266219267233</v>
+        <v>0.2886575903513915</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.863073070710158</v>
+        <v>2.942358976925476</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.693233125900775</v>
+        <v>1.349161747229459</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04911542229855215</v>
+        <v>0.0993840649003559</v>
       </c>
       <c r="E20">
-        <v>0.07377206961212757</v>
+        <v>0.1140949026891001</v>
       </c>
       <c r="F20">
-        <v>2.759273352639781</v>
+        <v>2.290209445851445</v>
       </c>
       <c r="G20">
-        <v>0.0007845936174691941</v>
+        <v>0.002512589466001795</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.79109216521698</v>
+        <v>1.365598256195881</v>
       </c>
       <c r="L20">
-        <v>0.6153579967313476</v>
+        <v>0.2944013178738913</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.865877341611139</v>
+        <v>2.941828660503916</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.897145292041898</v>
+        <v>1.392842197496094</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0470335549339751</v>
+        <v>0.09885359393021886</v>
       </c>
       <c r="E21">
-        <v>0.07703059379541877</v>
+        <v>0.1147881860766002</v>
       </c>
       <c r="F21">
-        <v>3.056311292598565</v>
+        <v>2.352177188668009</v>
       </c>
       <c r="G21">
-        <v>0.0007743510252011254</v>
+        <v>0.002506952271457392</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.325651375455436</v>
+        <v>1.494307529307662</v>
       </c>
       <c r="L21">
-        <v>0.6993718488282639</v>
+        <v>0.3138953600069101</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.879112569162345</v>
+        <v>2.940903794463566</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.033618911396502</v>
+        <v>1.421998895429624</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04573910794370306</v>
+        <v>0.09852188928304528</v>
       </c>
       <c r="E22">
-        <v>0.07927117499625158</v>
+        <v>0.115237945699751</v>
       </c>
       <c r="F22">
-        <v>3.257831801480023</v>
+        <v>2.393699708925624</v>
       </c>
       <c r="G22">
-        <v>0.0007677116163464147</v>
+        <v>0.002503404321274093</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.68349791272243</v>
+        <v>1.579019896030445</v>
       </c>
       <c r="L22">
-        <v>0.7556384901448894</v>
+        <v>0.3267828388030978</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.890877638119846</v>
+        <v>2.940940434327672</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.960462684277303</v>
+        <v>1.406381686230674</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04642351896805863</v>
+        <v>0.09869755138964109</v>
       </c>
       <c r="E23">
-        <v>0.07806390812391051</v>
+        <v>0.1149981951115242</v>
       </c>
       <c r="F23">
-        <v>3.149542250907274</v>
+        <v>2.371444370598965</v>
       </c>
       <c r="G23">
-        <v>0.0007712510787046757</v>
+        <v>0.002505285501078989</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.491653363182706</v>
+        <v>1.533752518212395</v>
       </c>
       <c r="L23">
-        <v>0.7254718382328917</v>
+        <v>0.3198910349104267</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.884294713837434</v>
+        <v>2.940862062664038</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.689949201880523</v>
+        <v>1.348458092625947</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04915048193952387</v>
+        <v>0.09939298745874936</v>
       </c>
       <c r="E24">
-        <v>0.07372041777816296</v>
+        <v>0.1140835124625692</v>
       </c>
       <c r="F24">
-        <v>2.75453083337888</v>
+        <v>2.289213801166511</v>
       </c>
       <c r="G24">
-        <v>0.0007847621404068767</v>
+        <v>0.002512683913133933</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.782481501921779</v>
+        <v>1.363504477929098</v>
       </c>
       <c r="L24">
-        <v>0.6140052748779823</v>
+        <v>0.2940851652913352</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.865709651305622</v>
+        <v>2.941854565242934</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.409683396994808</v>
+        <v>1.288591977884323</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05234044915829728</v>
+        <v>0.1002071453858377</v>
       </c>
       <c r="E25">
-        <v>0.06939964697940404</v>
+        <v>0.1130814254483257</v>
       </c>
       <c r="F25">
-        <v>2.354892335872066</v>
+        <v>2.204868589772261</v>
       </c>
       <c r="G25">
-        <v>0.0007996521684017123</v>
+        <v>0.002521253663993912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.046773778354975</v>
+        <v>1.182362085673503</v>
       </c>
       <c r="L25">
-        <v>0.4985333503286284</v>
+        <v>0.2668740032986108</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.857342757855292</v>
+        <v>2.945661970369116</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.246748183887064</v>
+        <v>1.211033189740306</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.100861413049131</v>
+        <v>0.05487101329604904</v>
       </c>
       <c r="E2">
-        <v>0.1123289386138282</v>
+        <v>0.0664292955431991</v>
       </c>
       <c r="F2">
-        <v>2.146450807788369</v>
+        <v>2.078281095377449</v>
       </c>
       <c r="G2">
-        <v>0.002528076292829612</v>
+        <v>0.0008109676643629431</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.051048226445658</v>
+        <v>2.523294538969566</v>
       </c>
       <c r="L2">
-        <v>0.2473636141730253</v>
+        <v>0.4165631320192631</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.950801149231197</v>
+        <v>1.859607172927824</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.219779472695791</v>
+        <v>1.080260920487461</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1013388829962043</v>
+        <v>0.05668658068516841</v>
       </c>
       <c r="E3">
-        <v>0.1118091654777409</v>
+        <v>0.06450665334148376</v>
       </c>
       <c r="F3">
-        <v>2.109131284187768</v>
+        <v>1.899645556132967</v>
       </c>
       <c r="G3">
-        <v>0.002533022867710667</v>
+        <v>0.0008188904245534519</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9632996346812206</v>
+        <v>2.17694218447275</v>
       </c>
       <c r="L3">
-        <v>0.2344631084123847</v>
+        <v>0.3624665216227356</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.955732365344502</v>
+        <v>1.86570524993104</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.203904745414206</v>
+        <v>1.001588035162399</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1016488144719325</v>
+        <v>0.05784739579018883</v>
       </c>
       <c r="E4">
-        <v>0.1114849743318507</v>
+        <v>0.063359285185002</v>
       </c>
       <c r="F4">
-        <v>2.087328611008772</v>
+        <v>1.793683063537799</v>
       </c>
       <c r="G4">
-        <v>0.002536220283943275</v>
+        <v>0.0008238905203646979</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.91002312539797</v>
+        <v>1.967575924792982</v>
       </c>
       <c r="L4">
-        <v>0.226699275821062</v>
+        <v>0.3298382722066577</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.959471811802956</v>
+        <v>1.871498711341928</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.197607745780971</v>
+        <v>0.9698982112697934</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1017793225283228</v>
+        <v>0.0583315420440762</v>
       </c>
       <c r="E5">
-        <v>0.1113515652256996</v>
+        <v>0.06289855186439919</v>
       </c>
       <c r="F5">
-        <v>2.078722417702167</v>
+        <v>1.751352421077002</v>
       </c>
       <c r="G5">
-        <v>0.002537563676452535</v>
+        <v>0.0008259635421424295</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8884624480444643</v>
+        <v>1.882971144217322</v>
       </c>
       <c r="L5">
-        <v>0.2235747983106933</v>
+        <v>0.3166720492383632</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.961174249550922</v>
+        <v>1.874347388540372</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.196572528415487</v>
+        <v>0.9646574346620298</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1018012472793366</v>
+        <v>0.05841259195261195</v>
       </c>
       <c r="E6">
-        <v>0.1113293334705294</v>
+        <v>0.0628224188647728</v>
       </c>
       <c r="F6">
-        <v>2.077310163066286</v>
+        <v>1.7443724066068</v>
       </c>
       <c r="G6">
-        <v>0.00253778919080865</v>
+        <v>0.000826309944714284</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8848913315631535</v>
+        <v>1.868962498638837</v>
       </c>
       <c r="L6">
-        <v>0.2230583529439372</v>
+        <v>0.3144931728431288</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.961467713272654</v>
+        <v>1.874849106924557</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.203819125071448</v>
+        <v>1.001159204915723</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1016505575198856</v>
+        <v>0.05785388078312437</v>
       </c>
       <c r="E7">
-        <v>0.1114831804245306</v>
+        <v>0.06335304580005552</v>
       </c>
       <c r="F7">
-        <v>2.087211418231135</v>
+        <v>1.793108844662896</v>
       </c>
       <c r="G7">
-        <v>0.002536238237453509</v>
+        <v>0.0008239183325844786</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9097317452149696</v>
+        <v>1.966432170909599</v>
       </c>
       <c r="L7">
-        <v>0.2266569789233728</v>
+        <v>0.3296602036625984</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.959494048910898</v>
+        <v>1.871535189329464</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.237307383169849</v>
+        <v>1.165582639409365</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1010225614622939</v>
+        <v>0.05548716110041241</v>
       </c>
       <c r="E8">
-        <v>0.112150750866026</v>
+        <v>0.06575853162767853</v>
       </c>
       <c r="F8">
-        <v>2.133351710239822</v>
+        <v>2.015861677105448</v>
       </c>
       <c r="G8">
-        <v>0.002529748704113816</v>
+        <v>0.0008136721696224447</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.020666850504341</v>
+        <v>2.403116028124117</v>
       </c>
       <c r="L8">
-        <v>0.2428828032791586</v>
+        <v>0.3977776779732665</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.952353501945495</v>
+        <v>1.861267241014204</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.308409982705911</v>
+        <v>1.50275706995032</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0999243646223924</v>
+        <v>0.05123574948216003</v>
       </c>
       <c r="E9">
-        <v>0.1134211668923655</v>
+        <v>0.07081619241438997</v>
       </c>
       <c r="F9">
-        <v>2.232704125096276</v>
+        <v>2.486456129195034</v>
       </c>
       <c r="G9">
-        <v>0.002518287669319223</v>
+        <v>0.0007945867174593557</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.24305448750232</v>
+        <v>3.291340865334746</v>
       </c>
       <c r="L9">
-        <v>0.2759577867196015</v>
+        <v>0.53689167609582</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.944015416127485</v>
+        <v>1.858752424466374</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.363973635046278</v>
+        <v>1.762352128967706</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09919917919837928</v>
+        <v>0.048389038091603</v>
       </c>
       <c r="E10">
-        <v>0.1143329307094501</v>
+        <v>0.07486514508149078</v>
       </c>
       <c r="F10">
-        <v>2.31118772450111</v>
+        <v>2.859399469716664</v>
       </c>
       <c r="G10">
-        <v>0.002510629698982776</v>
+        <v>0.0007810741810027139</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.409513179812336</v>
+        <v>3.972304126886399</v>
       </c>
       <c r="L10">
-        <v>0.3010397651094934</v>
+        <v>0.6438309170673477</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.941368945131671</v>
+        <v>1.869750468005194</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.389976272287186</v>
+        <v>1.883753038949294</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0988870951990144</v>
+        <v>0.04716472857613496</v>
       </c>
       <c r="E11">
-        <v>0.1147434606068503</v>
+        <v>0.07681338381883052</v>
       </c>
       <c r="F11">
-        <v>2.348102262297886</v>
+        <v>3.036651513356645</v>
       </c>
       <c r="G11">
-        <v>0.002507309597348315</v>
+        <v>0.0007750112575267147</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.485932920811877</v>
+        <v>4.290543553669352</v>
       </c>
       <c r="L11">
-        <v>0.3126236262877029</v>
+        <v>0.6938524245176296</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.940926409058378</v>
+        <v>1.878079328318137</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.399927386029134</v>
+        <v>1.930268451500012</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09877148643744249</v>
+        <v>0.04671235316452993</v>
       </c>
       <c r="E12">
-        <v>0.1148983434340769</v>
+        <v>0.07756983033247433</v>
       </c>
       <c r="F12">
-        <v>2.362256415614041</v>
+        <v>3.105025406527716</v>
       </c>
       <c r="G12">
-        <v>0.002506075737758935</v>
+        <v>0.0007727249812695264</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.514973105534182</v>
+        <v>4.412488147115369</v>
       </c>
       <c r="L12">
-        <v>0.3170353864800575</v>
+        <v>0.7130245059522622</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.940868780068683</v>
+        <v>1.881762817407207</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.397779588548019</v>
+        <v>1.920225192362466</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09879627035562066</v>
+        <v>0.04680926111052131</v>
       </c>
       <c r="E13">
-        <v>0.1148650117262715</v>
+        <v>0.07740602459966528</v>
       </c>
       <c r="F13">
-        <v>2.359200245278004</v>
+        <v>3.090241405708611</v>
       </c>
       <c r="G13">
-        <v>0.00250634043322648</v>
+        <v>0.0007732169862173245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.508714235740342</v>
+        <v>4.386157658763409</v>
       </c>
       <c r="L13">
-        <v>0.3160841109900616</v>
+        <v>0.7088846666471795</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.940876293933343</v>
+        <v>1.880945076054275</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.390792862362559</v>
+        <v>1.887568582201425</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09887753241663688</v>
+        <v>0.04712727921100424</v>
       </c>
       <c r="E14">
-        <v>0.1147562142604119</v>
+        <v>0.07687522106984801</v>
       </c>
       <c r="F14">
-        <v>2.349263210754259</v>
+        <v>3.042250588491157</v>
       </c>
       <c r="G14">
-        <v>0.002507207618897629</v>
+        <v>0.0007748229864487649</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.488320027748841</v>
+        <v>4.300545923965331</v>
       </c>
       <c r="L14">
-        <v>0.3129860782373584</v>
+        <v>0.6954249135978756</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.940919461628795</v>
+        <v>1.878371442161225</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.38652689774338</v>
+        <v>1.867638385564646</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09892764285918076</v>
+        <v>0.04732357385952923</v>
       </c>
       <c r="E15">
-        <v>0.1146894986634823</v>
+        <v>0.0765526330513584</v>
       </c>
       <c r="F15">
-        <v>2.343199369077411</v>
+        <v>3.013023006677287</v>
       </c>
       <c r="G15">
-        <v>0.002507741837519127</v>
+        <v>0.0007758078830396375</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.475841273556853</v>
+        <v>4.248299948719136</v>
       </c>
       <c r="L15">
-        <v>0.3110917316573847</v>
+        <v>0.6872114102736191</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.940960235784345</v>
+        <v>1.876865607687691</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.362288920861516</v>
+        <v>1.754490500318411</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09921993379196437</v>
+        <v>0.04847056027907826</v>
       </c>
       <c r="E16">
-        <v>0.1143060191998186</v>
+        <v>0.0747402411941227</v>
       </c>
       <c r="F16">
-        <v>2.308799757451595</v>
+        <v>2.847981743167708</v>
       </c>
       <c r="G16">
-        <v>0.00251084995534809</v>
+        <v>0.0007814718940116737</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.404533118466418</v>
+        <v>3.951694711112054</v>
       </c>
       <c r="L16">
-        <v>0.300286248934114</v>
+        <v>0.6405922307758374</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.941413226178199</v>
+        <v>1.869277323963786</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.347605778360872</v>
+        <v>1.685971395920149</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09940381258101993</v>
+        <v>0.04919301715819913</v>
       </c>
       <c r="E17">
-        <v>0.1140697054536135</v>
+        <v>0.07365788578713417</v>
       </c>
       <c r="F17">
-        <v>2.28800792737627</v>
+        <v>2.748788024144773</v>
       </c>
       <c r="G17">
-        <v>0.002512798483268153</v>
+        <v>0.0007849664356183622</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.360967400907214</v>
+        <v>3.77205127151268</v>
       </c>
       <c r="L17">
-        <v>0.293702120849332</v>
+        <v>0.6123667317012007</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.941886453550907</v>
+        <v>1.865508545443362</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.339228798924978</v>
+        <v>1.646868086116797</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09951125020266716</v>
+        <v>0.0496151332944379</v>
       </c>
       <c r="E18">
-        <v>0.1139333832987228</v>
+        <v>0.0730451205378122</v>
       </c>
       <c r="F18">
-        <v>2.276163022315046</v>
+        <v>2.692438956815749</v>
       </c>
       <c r="G18">
-        <v>0.002513934625992146</v>
+        <v>0.0007869844728086626</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.335975052941308</v>
+        <v>3.6695074828462</v>
       </c>
       <c r="L18">
-        <v>0.2899314653012368</v>
+        <v>0.5962593744739593</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.942230275605297</v>
+        <v>1.863650468323968</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.336404240851436</v>
+        <v>1.633679179155678</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09954791418450171</v>
+        <v>0.04975915414783927</v>
       </c>
       <c r="E19">
-        <v>0.1138871571309412</v>
+        <v>0.07283923316274432</v>
       </c>
       <c r="F19">
-        <v>2.272172087052894</v>
+        <v>2.67347658038284</v>
       </c>
       <c r="G19">
-        <v>0.002514321953716188</v>
+        <v>0.0007876692017498929</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.32752427836698</v>
+        <v>3.634916115426336</v>
       </c>
       <c r="L19">
-        <v>0.2886575903513915</v>
+        <v>0.5908266219267517</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.942358976925476</v>
+        <v>1.863073070710158</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.349161747229459</v>
+        <v>1.693233125900804</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0993840649003559</v>
+        <v>0.04911542229841714</v>
       </c>
       <c r="E20">
-        <v>0.1140949026891001</v>
+        <v>0.07377206961215688</v>
       </c>
       <c r="F20">
-        <v>2.290209445851445</v>
+        <v>2.759273352639809</v>
       </c>
       <c r="G20">
-        <v>0.002512589466001795</v>
+        <v>0.0007845936175291247</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.365598256195881</v>
+        <v>3.791092165217094</v>
       </c>
       <c r="L20">
-        <v>0.2944013178738913</v>
+        <v>0.6153579967313192</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.941828660503916</v>
+        <v>1.86587734161121</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.392842197496094</v>
+        <v>1.897145292041927</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09885359393021886</v>
+        <v>0.04703355493409234</v>
       </c>
       <c r="E21">
-        <v>0.1147881860766002</v>
+        <v>0.07703059379541699</v>
       </c>
       <c r="F21">
-        <v>2.352177188668009</v>
+        <v>3.056311292598565</v>
       </c>
       <c r="G21">
-        <v>0.002506952271457392</v>
+        <v>0.0007743510252013195</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.494307529307662</v>
+        <v>4.325651375455493</v>
       </c>
       <c r="L21">
-        <v>0.3138953600069101</v>
+        <v>0.6993718488282212</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.940903794463566</v>
+        <v>1.879112569162402</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.421998895429624</v>
+        <v>2.033618911396559</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09852188928304528</v>
+        <v>0.04573910794332292</v>
       </c>
       <c r="E22">
-        <v>0.115237945699751</v>
+        <v>0.07927117499627201</v>
       </c>
       <c r="F22">
-        <v>2.393699708925624</v>
+        <v>3.257831801480052</v>
       </c>
       <c r="G22">
-        <v>0.002503404321274093</v>
+        <v>0.0007677116162777985</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.579019896030445</v>
+        <v>4.683497912722487</v>
       </c>
       <c r="L22">
-        <v>0.3267828388030978</v>
+        <v>0.7556384901447757</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.940940434327672</v>
+        <v>1.890877638119832</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.406381686230674</v>
+        <v>1.960462684277189</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09869755138964109</v>
+        <v>0.04642351896806574</v>
       </c>
       <c r="E23">
-        <v>0.1149981951115242</v>
+        <v>0.07806390812390873</v>
       </c>
       <c r="F23">
-        <v>2.371444370598965</v>
+        <v>3.149542250907245</v>
       </c>
       <c r="G23">
-        <v>0.002505285501078989</v>
+        <v>0.0007712510788348978</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.533752518212395</v>
+        <v>4.491653363182763</v>
       </c>
       <c r="L23">
-        <v>0.3198910349104267</v>
+        <v>0.725471838232977</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.940862062664038</v>
+        <v>1.884294713837406</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.348458092625947</v>
+        <v>1.68994920188058</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09939298745874936</v>
+        <v>0.04915048193940663</v>
       </c>
       <c r="E24">
-        <v>0.1140835124625692</v>
+        <v>0.07372041777816296</v>
       </c>
       <c r="F24">
-        <v>2.289213801166511</v>
+        <v>2.75453083337888</v>
       </c>
       <c r="G24">
-        <v>0.002512683913133933</v>
+        <v>0.0007847621404064326</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.363504477929098</v>
+        <v>3.782481501921836</v>
       </c>
       <c r="L24">
-        <v>0.2940851652913352</v>
+        <v>0.6140052748779823</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.941854565242934</v>
+        <v>1.865709651305664</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.288591977884323</v>
+        <v>1.409683396994694</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1002071453858377</v>
+        <v>0.05234044915830083</v>
       </c>
       <c r="E25">
-        <v>0.1130814254483257</v>
+        <v>0.06939964697940049</v>
       </c>
       <c r="F25">
-        <v>2.204868589772261</v>
+        <v>2.354892335872066</v>
       </c>
       <c r="G25">
-        <v>0.002521253663993912</v>
+        <v>0.0007996521683433013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.182362085673503</v>
+        <v>3.046773778354918</v>
       </c>
       <c r="L25">
-        <v>0.2668740032986108</v>
+        <v>0.4985333503285005</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.945661970369116</v>
+        <v>1.857342757855292</v>
       </c>
       <c r="O25">
         <v>0</v>
